--- a/medicine/Psychotrope/Friuli_Latisana_Sauvignon_superiore/Friuli_Latisana_Sauvignon_superiore.xlsx
+++ b/medicine/Psychotrope/Friuli_Latisana_Sauvignon_superiore/Friuli_Latisana_Sauvignon_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Friuli Latisana Sauvignon superiore est un vin blanc italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 19 mai 1975. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en provinces de Pordenone et d'Udine dans les communes de Castions di Strada, Latisana, Lignano Sabbiadoro, Muzzana del Turgnano, Morsano al Tagliamento, Palazzolo dello Stella, Pocenia, Precenicco, Rivignano, Ronchis, Teor et Varmo.
 Le Friuli Latisana Sauvignon superiore répond à un cahier des charges plus exigeant que le Friuli Latisana Sauvignon, essentiellement en relation avec le taux d’alcool.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille clair
 odeur : délicat, agréable, harmonique
@@ -578,7 +594,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
